--- a/simulacoes_monte_carlo_novo_modelo/resumo_MC_FC_int2.xlsx
+++ b/simulacoes_monte_carlo_novo_modelo/resumo_MC_FC_int2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NetoDavi\Desktop\survival_pibic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NetoDavi\Desktop\survival_pibic\simulacoes_monte_carlo_novo_modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85461A0-A2F9-4722-A316-F2E181CE02F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C508E94-A16C-431D-BF86-501764CEB370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15840" xr2:uid="{16ED0D79-9F9E-49EB-8194-2C5C13E1CF0A}"/>
+    <workbookView xWindow="1335" yWindow="150" windowWidth="16410" windowHeight="14610" xr2:uid="{16ED0D79-9F9E-49EB-8194-2C5C13E1CF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="cenario1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -281,6 +281,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,13 +299,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EFFD1C-6A8B-4542-A6B8-6966A513FFA1}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,21 +1378,21 @@
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0.5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>50</v>
       </c>
       <c r="E6" t="s">
@@ -1401,16 +1401,16 @@
       <c r="F6" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>1.5835142200018699</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>1.5530376605191201</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>43.955838181988398</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>0.73666666666666702</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -1437,62 +1437,62 @@
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="5">
         <v>0.3</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>0.43324911399866001</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>0.27772323457776199</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>44.416371332886598</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>0.85</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <v>0.18</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="8">
         <v>0.34</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="8">
         <v>0.38</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="8">
         <v>0.37609999999999999</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="8">
         <v>0.42</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="8">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="5">
         <v>0.9</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <v>1.5745399221988501</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>1.4484568004109799</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>74.9488802443162</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>0.78333333333333299</v>
       </c>
     </row>
@@ -1503,23 +1503,23 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="13"/>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="5">
         <v>0.8</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="9">
         <v>1.1852173752658</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>1.2292906719706</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>48.152171908224702</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="9">
         <v>0.79500000000000004</v>
       </c>
     </row>
@@ -1530,53 +1530,53 @@
       <c r="B10" s="4">
         <v>15</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="13"/>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="5">
         <v>1.2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>3.0597349517562198</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>8.0968767104323192</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>154.977912646351</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="9">
         <v>0.82</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="13"/>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="5">
         <v>0.3</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>1.8085603322569199</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>6.5447685959958903</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>502.85344408563998</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <v>0.78666666666666696</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1601,88 +1601,88 @@
     <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="13"/>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>-1.1032656953569999</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>7.6133544121718701</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>120.653139071401</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <v>0.78666666666666696</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <v>0.06</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="8">
         <v>0.18</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="8">
         <v>0.22</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="8">
         <v>0.21883333333333299</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="8">
         <v>0.26</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="8">
         <v>0.42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="10"/>
+      <c r="D13" s="13"/>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <v>-0.56780631267214599</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>0.56713299331422795</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>13.5612625344293</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>0.87333333333333296</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="11"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6">
         <v>0.8</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>0.84137978313042705</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>0.35552878015035599</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="10">
         <v>5.17247289130336</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="10">
         <v>0.88666666666666705</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="9">
+      <c r="D15" s="12">
         <v>100</v>
       </c>
       <c r="E15" t="s">
@@ -1691,45 +1691,45 @@
       <c r="F15" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="9">
         <v>1.2610769632491401</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="9">
         <v>0.91928244849072704</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>14.643360295376199</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="9">
         <v>0.80833333333333302</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="10"/>
+      <c r="D16" s="13"/>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="5">
         <v>0.3</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>0.36494175331158302</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="9">
         <v>0.150347177501443</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <v>21.647251103860899</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>0.90833333333333299</v>
       </c>
       <c r="L16" s="7" t="s">
@@ -1752,133 +1752,133 @@
       </c>
     </row>
     <row r="17" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
+      <c r="D17" s="13"/>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="5">
         <v>0.9</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="9">
         <v>1.16578663940314</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="9">
         <v>0.624497111114937</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="9">
         <v>29.531848822571199</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>0.82166666666666699</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>0.13</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="8">
         <v>0.19</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="8">
         <v>0.22</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="8">
         <v>0.22084999999999999</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="8">
         <v>0.25</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="8">
         <v>0.35</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="10"/>
+      <c r="D18" s="13"/>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="5">
         <v>0.8</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>0.91565639065594695</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="9">
         <v>0.59731229010175901</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>14.457048831993299</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>0.84833333333333305</v>
       </c>
     </row>
     <row r="19" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="10"/>
+      <c r="D19" s="13"/>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="5">
         <v>1.2</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <v>2.2427087462334199</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="9">
         <v>9.05311916176721</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <v>86.892395519451497</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="9">
         <v>0.88333333333333297</v>
       </c>
     </row>
     <row r="20" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="10"/>
+      <c r="D20" s="13"/>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5">
         <v>0.3</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <v>0.860142663199566</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="9">
         <v>7.0572034830327697</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>186.71422106652199</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="9">
         <v>0.87666666666666704</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="10"/>
+      <c r="D21" s="13"/>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <v>-1.2005108757101799</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="9">
         <v>5.9536396482776404</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="9">
         <v>140.102175142036</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="9">
         <v>0.85166666666666702</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -1901,67 +1901,67 @@
       </c>
     </row>
     <row r="22" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="10"/>
+      <c r="D22" s="13"/>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <v>-0.50671974308048495</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="9">
         <v>0.356447926678852</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="9">
         <v>1.34394861609705</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="8">
         <v>0.24</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <v>0.35</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="8">
         <v>0.38</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="8">
         <v>0.37736666666666702</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="8">
         <v>0.41</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="8">
         <v>0.51</v>
       </c>
     </row>
     <row r="23" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="11"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="6">
         <v>0.8</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="10">
         <v>0.83401618178825498</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="10">
         <v>0.218383595368316</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="10">
         <v>4.2520227235319101</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="10">
         <v>0.90166666666666695</v>
       </c>
     </row>
     <row r="24" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="9">
+      <c r="D24" s="12">
         <v>500</v>
       </c>
       <c r="E24" t="s">
@@ -1970,45 +1970,45 @@
       <c r="F24" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>1.19563532348684</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="9">
         <v>0.40877641922443703</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="9">
         <v>8.6941203169852592</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="9">
         <v>0.86499999999999999</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="10"/>
+      <c r="D25" s="13"/>
       <c r="E25" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="5">
         <v>0.3</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="9">
         <v>0.34467880548397301</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="9">
         <v>5.34022875487868E-2</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="9">
         <v>14.892935161324401</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="9">
         <v>0.90500000000000003</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -2031,133 +2031,133 @@
       </c>
     </row>
     <row r="26" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
+      <c r="D26" s="13"/>
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="5">
         <v>0.9</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <v>1.0018803790725499</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="9">
         <v>0.21689472534207199</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="9">
         <v>11.320042119172401</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="9">
         <v>0.88833333333333298</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="8">
         <v>0.29399999999999998</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <v>0.36</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="8">
         <v>0.376</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="8">
         <v>0.37496000000000002</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="8">
         <v>0.39</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="8">
         <v>0.434</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="10"/>
+      <c r="D27" s="13"/>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="5">
         <v>0.8</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="9">
         <v>0.85060949666241903</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="9">
         <v>0.20221207443166</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="9">
         <v>6.3261870828023303</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="9">
         <v>0.88166666666666704</v>
       </c>
     </row>
     <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="10"/>
+      <c r="D28" s="13"/>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="5">
         <v>1.2</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>1.19783345209417</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="9">
         <v>0.237038734681628</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="9">
         <v>-0.18054565881903201</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="9">
         <v>0.93166666666666698</v>
       </c>
     </row>
     <row r="29" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="10"/>
+      <c r="D29" s="13"/>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5">
         <v>0.3</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="9">
         <v>0.32117564538762799</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="9">
         <v>0.291486326402842</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="9">
         <v>7.0585484625427801</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="9">
         <v>0.95833333333333304</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="10"/>
+      <c r="D30" s="13"/>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="9">
         <v>-0.48912462210552399</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="9">
         <v>0.203704502306982</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="9">
         <v>-2.1750755788950999</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="9">
         <v>0.94166666666666698</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -2180,67 +2180,67 @@
       </c>
     </row>
     <row r="31" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="10"/>
+      <c r="D31" s="13"/>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="9">
         <v>-0.50407715535560704</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="9">
         <v>0.14669022026242301</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="9">
         <v>0.81543107112131397</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="9">
         <v>0.94666666666666699</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="8">
         <v>0.16400000000000001</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="8">
         <v>0.20599999999999999</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="8">
         <v>0.216</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="8">
         <v>0.217126666666667</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="8">
         <v>0.23</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="8">
         <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="32" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="11"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="6">
         <v>0.8</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="10">
         <v>0.80536620640495205</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="10">
         <v>8.2453280358199793E-2</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="10">
         <v>0.67077580061905795</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="10">
         <v>0.94166666666666698</v>
       </c>
     </row>
     <row r="33" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <v>1000</v>
       </c>
       <c r="E33" t="s">
@@ -2249,45 +2249,45 @@
       <c r="F33" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="9">
         <v>1.20454950452261</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="9">
         <v>0.29177046104860799</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="9">
         <v>9.5045004111462301</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="9">
         <v>0.88</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="10"/>
+      <c r="D34" s="13"/>
       <c r="E34" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="5">
         <v>0.3</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="9">
         <v>0.33910484676570302</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="9">
         <v>3.5682845644554699E-2</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="9">
         <v>13.034948921901099</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="9">
         <v>0.92</v>
       </c>
       <c r="L34" s="7" t="s">
@@ -2310,133 +2310,133 @@
       </c>
     </row>
     <row r="35" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="10"/>
+      <c r="D35" s="13"/>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="5">
         <v>0.9</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="9">
         <v>0.974211636825007</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="9">
         <v>0.152101710323432</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="9">
         <v>8.2457374250007707</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="9">
         <v>0.90833333333333299</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="8">
         <v>0.33700000000000002</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="8">
         <v>0.36575000000000002</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="8">
         <v>0.376</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="8">
         <v>0.37614833333333297</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="8">
         <v>0.38600000000000001</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="8">
         <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D36" s="10"/>
+      <c r="D36" s="13"/>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="5">
         <v>0.8</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="9">
         <v>0.85524784765595596</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="9">
         <v>0.141703304804882</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="9">
         <v>6.9059809569944299</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="9">
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="37" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="10"/>
+      <c r="D37" s="13"/>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="5">
         <v>1.2</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="9">
         <v>1.1936208256768099</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="9">
         <v>0.16019815500842399</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="9">
         <v>-0.53159786026585099</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
+      <c r="D38" s="13"/>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="5">
         <v>0.3</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="9">
         <v>0.300081242605999</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="9">
         <v>0.21862853677678201</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="9">
         <v>2.7080868666393001E-2</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="9">
         <v>0.94166666666666698</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
+      <c r="D39" s="13"/>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="9">
         <v>-0.48871880327920098</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="9">
         <v>0.14938016314814401</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="9">
         <v>-2.25623934415986</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="9">
         <v>0.93500000000000005</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -2459,80 +2459,80 @@
       </c>
     </row>
     <row r="40" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
+      <c r="D40" s="13"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="9">
         <v>-0.498150960822281</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="9">
         <v>0.103914882705589</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="9">
         <v>-0.36980783554375501</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="9">
         <v>0.94833333333333303</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="8">
         <v>0.17799999999999999</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="8">
         <v>0.20799999999999999</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="8">
         <v>0.218</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="8">
         <v>0.21782000000000001</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="8">
         <v>0.22700000000000001</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="8">
         <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="41" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="11"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="6">
         <v>0.8</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="10">
         <v>0.80190600277416302</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="10">
         <v>5.4578581815900203E-2</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="10">
         <v>0.23825034677038301</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="10">
         <v>0.96333333333333304</v>
       </c>
     </row>
     <row r="42" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="D24:D32"/>
     <mergeCell ref="L29:Q29"/>
     <mergeCell ref="L33:Q33"/>
     <mergeCell ref="L38:Q38"/>
     <mergeCell ref="L15:Q15"/>
     <mergeCell ref="L20:Q20"/>
     <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="D6:D14"/>
-    <mergeCell ref="D15:D23"/>
-    <mergeCell ref="D24:D32"/>
-    <mergeCell ref="D33:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2543,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC05885F-58D3-4928-9531-621AEEAEC298}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:I54"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,7 +2602,7 @@
         <v>0.5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>50</v>
       </c>
       <c r="E6" t="s">
@@ -2629,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -2650,7 +2650,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="13"/>
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="13"/>
       <c r="E10" t="s">
         <v>9</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="10"/>
+      <c r="D11" s="13"/>
       <c r="E11" t="s">
         <v>10</v>
       </c>
@@ -2751,7 +2751,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="13"/>
       <c r="E12" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="10"/>
+      <c r="D13" s="13"/>
       <c r="E13" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2794,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="11"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="9">
+      <c r="D15" s="12">
         <v>100</v>
       </c>
       <c r="E15" t="s">
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
+      <c r="D16" s="13"/>
       <c r="E16" t="s">
         <v>2</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
+      <c r="D17" s="13"/>
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="10"/>
+      <c r="D18" s="13"/>
       <c r="E18" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="10"/>
+      <c r="D19" s="13"/>
       <c r="E19" t="s">
         <v>9</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="10"/>
+      <c r="D20" s="13"/>
       <c r="E20" t="s">
         <v>10</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="10"/>
+      <c r="D21" s="13"/>
       <c r="E21" t="s">
         <v>11</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="10"/>
+      <c r="D22" s="13"/>
       <c r="E22" t="s">
         <v>12</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
     </row>
     <row r="23" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="11"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
     </row>
     <row r="24" spans="4:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="9">
+      <c r="D24" s="12">
         <v>500</v>
       </c>
       <c r="E24" t="s">
@@ -3035,7 +3035,7 @@
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="10"/>
+      <c r="D25" s="13"/>
       <c r="E25" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
+      <c r="D26" s="13"/>
       <c r="E26" t="s">
         <v>3</v>
       </c>
@@ -3077,7 +3077,7 @@
       </c>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="10"/>
+      <c r="D27" s="13"/>
       <c r="E27" t="s">
         <v>4</v>
       </c>
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="10"/>
+      <c r="D28" s="13"/>
       <c r="E28" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3119,7 @@
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="10"/>
+      <c r="D29" s="13"/>
       <c r="E29" t="s">
         <v>10</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="10"/>
+      <c r="D30" s="13"/>
       <c r="E30" t="s">
         <v>11</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="10"/>
+      <c r="D31" s="13"/>
       <c r="E31" t="s">
         <v>12</v>
       </c>
@@ -3182,7 +3182,7 @@
       </c>
     </row>
     <row r="32" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="11"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="33" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <v>1000</v>
       </c>
       <c r="E33" t="s">
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="10"/>
+      <c r="D34" s="13"/>
       <c r="E34" t="s">
         <v>2</v>
       </c>
@@ -3247,7 +3247,7 @@
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="10"/>
+      <c r="D35" s="13"/>
       <c r="E35" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="10"/>
+      <c r="D36" s="13"/>
       <c r="E36" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3289,7 @@
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="10"/>
+      <c r="D37" s="13"/>
       <c r="E37" t="s">
         <v>9</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
+      <c r="D38" s="13"/>
       <c r="E38" t="s">
         <v>10</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
+      <c r="D39" s="13"/>
       <c r="E39" t="s">
         <v>11</v>
       </c>
@@ -3352,7 +3352,7 @@
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
+      <c r="D40" s="13"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
     </row>
     <row r="41" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="11"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
@@ -3401,14 +3401,14 @@
     </row>
     <row r="45" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="7" t="s">
@@ -3433,14 +3433,14 @@
     <row r="48" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="1" t="s">
